--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_2_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_2_sine_0.1_.xlsx
@@ -577,33 +577,33 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.540012892879531e-14</v>
+        <v>2.642330798607873e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>7.666382148990555e-13</v>
+        <v>9.234235950850508e-14</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>40.57559867672921</v>
+        <v>41.4391415716992</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.670758189034586, 50.48043916442384]</t>
+          <t>[30.83457479692757, 52.04370834647082]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>7.043254868221993e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.49213974509621e-13</v>
+        <v>1.408650973644399e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.59123711983627</v>
+        <v>1.641552918091963</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.314500229429961, 1.8679740102425795]</t>
+          <t>[1.339658128557808, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.27785453687273</v>
+        <v>59.91288495659356</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.54687584318584, 61.008833230559624]</t>
+          <t>[53.126795129632654, 66.69897478355446]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.59399399399434</v>
+        <v>18.39459459459493</v>
       </c>
       <c r="X2" t="n">
-        <v>17.49729729729762</v>
+        <v>17.19819819819851</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.69069069069106</v>
+        <v>19.59099099099135</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.20000000000034</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.784750290947159e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.459204717000892e-12</v>
+        <v>1.125859968633962e-14</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>38.97075052432959</v>
+        <v>45.62360837333575</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[26.205688403379412, 51.735812645279765]</t>
+          <t>[32.87865825141181, 58.36855849525969]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8.797728545673067e-09</v>
+        <v>3.059508202341021e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>8.797728545673067e-09</v>
+        <v>3.059508202341021e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.4842895582110396</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 1.0000264903318863]</t>
+          <t>[0.1823947686768861, 0.7861843477451931]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>7.209435985777723e-05</v>
+        <v>0.001811525057478391</v>
       </c>
       <c r="R3" t="n">
-        <v>7.209435985777723e-05</v>
+        <v>0.001811525057478391</v>
       </c>
       <c r="S3" t="n">
-        <v>61.86766369801552</v>
+        <v>60.89204763652153</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.24117037531437, 68.49415702071667]</t>
+          <t>[54.00262487998698, 67.78147039305608]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.60800800800831</v>
+        <v>22.30704704704736</v>
       </c>
       <c r="X3" t="n">
-        <v>20.34834834834863</v>
+        <v>21.14572572572602</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.86766766766799</v>
+        <v>23.46836836836869</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_2_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_2_sine_0.1_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.90000000000045</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.642330798607873e-14</v>
+        <v>4.370503958739391e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>9.234235950850508e-14</v>
+        <v>2.05835348765504e-11</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.4391415716992</v>
+        <v>39.27732752895447</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.83457479692757, 52.04370834647082]</t>
+          <t>[26.137536383856443, 52.41711867405249]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.043254868221993e-13</v>
+        <v>1.68087732621558e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.408650973644399e-12</v>
+        <v>1.68087732621558e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091963</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.339658128557808, 1.9434477076261185]</t>
+          <t>[1.5912371198362711, 2.320816194543812]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.91288495659356</v>
+        <v>61.30616234463049</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.126795129632654, 66.69897478355446]</t>
+          <t>[54.190734453223804, 68.42159023603716]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.39459459459493</v>
+        <v>17.89901901901945</v>
       </c>
       <c r="X2" t="n">
-        <v>17.19819819819851</v>
+        <v>16.39009009009048</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.59099099099135</v>
+        <v>19.40794794794841</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.17000000000034</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>8.247846849940288e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>1.125859968633962e-14</v>
+        <v>1.218778164810727e-11</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.62360837333575</v>
+        <v>40.11368647006657</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[32.87865825141181, 58.36855849525969]</t>
+          <t>[26.92061249421309, 53.30676044592005]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.059508202341021e-11</v>
+        <v>9.986682814044912e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.059508202341021e-11</v>
+        <v>1.68087732621558e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4842895582110396</v>
+        <v>0.5220264069028095</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.1823947686768861, 0.7861843477451931]</t>
+          <t>[0.18239476867688698, 0.8616580451287321]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.001811525057478391</v>
+        <v>0.00277083591174776</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001811525057478391</v>
+        <v>0.00277083591174776</v>
       </c>
       <c r="S3" t="n">
-        <v>60.89204763652153</v>
+        <v>59.69214197185573</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.00262487998698, 67.78147039305608]</t>
+          <t>[52.74720801712448, 66.63707592658699]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.30704704704736</v>
+        <v>22.01517517517546</v>
       </c>
       <c r="X3" t="n">
-        <v>21.14572572572602</v>
+        <v>20.71733733733761</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.46836836836869</v>
+        <v>23.31301301301331</v>
       </c>
     </row>
   </sheetData>
